--- a/Project-JAVA/Product_Backlog.xlsx
+++ b/Project-JAVA/Product_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mani Santhamohan\Documents\GitHub\A00429112_MCDA5510\Project-JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0219E118-99CA-419B-889B-A358CAB57CAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389C3A5C-19C3-4B77-87D8-1F6F1A5ACEA9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14664" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14664" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog - Meeting 1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Sprint Backlog 2" sheetId="4" r:id="rId4"/>
     <sheet name="Team Members" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
   <si>
     <t>As a hotel owner I want a payment details portal so that I can assist my customers</t>
   </si>
@@ -390,15 +391,82 @@
   </si>
   <si>
     <t>A00426623</t>
+  </si>
+  <si>
+    <t>As a customer I want to see my pervious bookings so that I can see what I paid ( compare prices)</t>
+  </si>
+  <si>
+    <t>As a customer I want to get an email notification of payment so that I can have proof of payment</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want to see the resurant menu so that customers will know what food options there are</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want a special role so that I can have different access for different users ( admin/users)</t>
+  </si>
+  <si>
+    <t>As a hotel owner I want to implement a live chat for employees so that I can assist my customers in real time</t>
+  </si>
+  <si>
+    <t>As a customer I want to schedue an airport pickup so that I be picked up by the hotel airport shuttle</t>
+  </si>
+  <si>
+    <t>As a customer I want to re-schedue an airport pickup so that I be picked up by the hotel airport shuttle</t>
+  </si>
+  <si>
+    <t>B-Value</t>
+  </si>
+  <si>
+    <t>Effor</t>
+  </si>
+  <si>
+    <t>As a customer I want to have an option to book a meeting hall so that I can book an event</t>
+  </si>
+  <si>
+    <t>Design &amp; Buid the schema</t>
+  </si>
+  <si>
+    <t>Integrate Database with Website</t>
+  </si>
+  <si>
+    <t>Create a webpage for editing the menu for Managers</t>
+  </si>
+  <si>
+    <t>Create a new webpage for displaying the Food Menu</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>Create a module to fetch the Report from Database</t>
+  </si>
+  <si>
+    <t>Create a new webpage and link it with Tableau</t>
+  </si>
+  <si>
+    <t>Create a new webpage for User Profile</t>
+  </si>
+  <si>
+    <t>Create a module to calculate the discount applicable as per the member privileage</t>
+  </si>
+  <si>
+    <t>Integrate with current cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -477,7 +545,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,8 +569,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -551,58 +625,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="5" builtinId="44"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -1001,7 +1090,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B21"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1166,12 +1255,12 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="102.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1475,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1486,10 +1575,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -1500,7 +1589,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="6">
@@ -1524,7 +1613,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="6">
@@ -1535,12 +1624,12 @@
       <c r="A7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="6">
@@ -1564,10 +1653,10 @@
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="16"/>
     </row>
     <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -1728,10 +1817,10 @@
       <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="14"/>
+      <c r="B34" s="16"/>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -1798,10 +1887,10 @@
       <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
@@ -1828,7 +1917,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="6">
@@ -1862,10 +1951,10 @@
       <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
@@ -1884,7 +1973,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="6">
@@ -1892,7 +1981,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B57" s="6">
@@ -1900,7 +1989,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B58" s="6">
@@ -2025,14 +2114,544 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCB32FF-8B63-42BF-AFAC-86F7D6CECCE2}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="94.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="18">
+        <v>6</v>
+      </c>
+      <c r="D2" s="18">
+        <v>2.75</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2/D2</f>
+        <v>2.1818181818181817</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="D3" s="18">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18">
+        <f>C3/D3</f>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18">
+        <f>C4/D4</f>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="18">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18">
+        <v>3</v>
+      </c>
+      <c r="E5" s="18">
+        <f>C5/D5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>C6/D6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <f>C7/D7</f>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <f>C8/D8</f>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="1">
+        <f>C9/D9</f>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <f>C10/D10</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11/D11</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <f>C12/D12</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <f>C13/D13</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="D14" s="17">
+        <v>5</v>
+      </c>
+      <c r="E14" s="17">
+        <f>C14/D14</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="17">
+        <v>5</v>
+      </c>
+      <c r="D15" s="17">
+        <v>4</v>
+      </c>
+      <c r="E15" s="17">
+        <f>C15/D15</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="17">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17">
+        <v>2.75</v>
+      </c>
+      <c r="E16" s="17">
+        <f>C16/D16</f>
+        <v>1.0909090909090908</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="17">
+        <f>C17/D17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="17">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17">
+        <v>10</v>
+      </c>
+      <c r="E18" s="17">
+        <f>C18/D18</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="17">
+        <v>3</v>
+      </c>
+      <c r="D19" s="17">
+        <v>4</v>
+      </c>
+      <c r="E19" s="17">
+        <f>C19/D19</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="17">
+        <v>4</v>
+      </c>
+      <c r="D20" s="17">
+        <v>7</v>
+      </c>
+      <c r="E20" s="17">
+        <f>C20/D20</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="E21" s="17">
+        <f>C21/D21</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:E21">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C773D5C9-A8C6-4D1A-8CA9-0825AC2789F5}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2170,18 +2789,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2203,14 +2822,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA593FC-E3F3-45C7-BDBC-B71DE6EDA81C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1B70E5-4733-4CFC-B379-47FE89540DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="99da3e41-df7b-43b0-8182-590017f22641"/>
@@ -2224,4 +2835,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA593FC-E3F3-45C7-BDBC-B71DE6EDA81C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>